--- a/accoj/download/test.xlsx
+++ b/accoj/download/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17020\Project\hnit-accoj\accoj\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4516CDB-3485-4C7D-8C1B-20EF7C52D6C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C9111-451D-4B0C-8A00-A4557709EB5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10680" yWindow="5700" windowWidth="16380" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,51 +83,7 @@
     <t>胡燕卿</t>
   </si>
   <si>
-    <t>杨康宁</t>
-  </si>
-  <si>
-    <t>金悠素</t>
-  </si>
-  <si>
-    <t>傅欣秀</t>
-  </si>
-  <si>
-    <t>钱书文</t>
-  </si>
-  <si>
-    <t>翟舒怀</t>
-  </si>
-  <si>
-    <t>农闵雨</t>
-  </si>
-  <si>
     <t>湖南工学院</t>
-  </si>
-  <si>
-    <t>经济与管理学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会计学1701</t>
-  </si>
-  <si>
-    <t>会计学1701</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商管理1701</t>
-  </si>
-  <si>
-    <t>马雅志</t>
-  </si>
-  <si>
-    <t>寿元勋</t>
-  </si>
-  <si>
-    <t>羿宏深</t>
-  </si>
-  <si>
-    <t>慎绍辉</t>
   </si>
 </sst>
 </file>
@@ -467,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E15"/>
+      <selection activeCell="E15" sqref="A6:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -531,7 +487,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -548,7 +504,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -565,7 +521,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -575,174 +531,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>17020340115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>17020340116</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>17020340117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>17020340118</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>17020340119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>17020340120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>17020340121</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>17020340122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>17020340123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>17020340124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
